--- a/workspace/Health Facility Data/WyomingHealth24_xlsx.xlsx
+++ b/workspace/Health Facility Data/WyomingHealth24_xlsx.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c1929351461b30c/Documents/internship/HICAHS/Data/HealthFac_PrioPop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c1929351461b30c/Documents/internship/workspace/Health Facility Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8300B9D4-235B-4A3B-8321-9D473C3F3D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{8300B9D4-235B-4A3B-8321-9D473C3F3D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{996B95F3-6EE6-4911-88A6-EB0660A3C09A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{298DB5C7-3C3B-4842-B707-6D8D22690268}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="312">
   <si>
     <t>state</t>
   </si>
@@ -2861,7 +2861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="288" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="288" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="288" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>4</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>4</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>4</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>4</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>4</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>4</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>4</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>4</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>4</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>4</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>4</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>4</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>4</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>4</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>4</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>4</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>4</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>4</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>4</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>4</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>4</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>4</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>4</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>4</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>4</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>4</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>4</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>4</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>4</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>4</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>4</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>4</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>4</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>4</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>4</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>4</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>4</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>4</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>4</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>4</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>4</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>4</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>4</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>4</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>4</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>4</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>4</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>4</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>4</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>4</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>4</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>4</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>4</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>4</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>4</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>4</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>4</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>4</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>4</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>4</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>4</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>4</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>4</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>4</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>4</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>4</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>4</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>4</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>4</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>4</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>4</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>4</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>4</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>4</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>4</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>4</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>4</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>4</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>4</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>4</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>4</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>4</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>4</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>4</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>4</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>4</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>4</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>4</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>4</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>4</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>4</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>4</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>4</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>4</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>4</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>4</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>4</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>4</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>4</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>4</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>4</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>4</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>4</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>4</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>4</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>4</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>4</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>4</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>4</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>4</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>4</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>4</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>4</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>4</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>4</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>4</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>4</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>4</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>4</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>4</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>4</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>4</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>4</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>4</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>4</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>4</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>4</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>4</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>4</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>4</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>4</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>4</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>4</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>4</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>4</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>4</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>4</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>4</v>
       </c>
@@ -5552,337 +5552,399 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F245F07-F7F5-417F-8E5C-E1FC2B417702}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="22.5546875" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>309</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>311</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>310</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>0</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>3</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
         <v>38</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>3</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
         <v>42</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
         <v>44</v>
       </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
       <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
         <v>2</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
         <v>46</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
         <v>48</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -5890,13 +5952,16 @@
       <c r="D23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
         <v>50</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -5904,13 +5969,16 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
         <v>52</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -5918,13 +5986,16 @@
       <c r="D25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
         <v>54</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -5932,13 +6003,16 @@
       <c r="D26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
         <v>56</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -5946,13 +6020,16 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
         <v>58</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -5960,13 +6037,16 @@
       <c r="D28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
         <v>60</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -5974,18 +6054,24 @@
       <c r="D29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
         <v>62</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
         <v>0</v>
       </c>
     </row>
